--- a/element_app.xlsx
+++ b/element_app.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\PythonProject1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D316361-FCD0-441B-8E91-F26D343BE391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C81FF5-452E-480D-ADB1-BFAD5045A41E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1848" yWindow="1848" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="element_app" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="246">
   <si>
     <t>Symbol</t>
   </si>
@@ -538,6 +538,258 @@
   <si>
     <t>Plumbic</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>He</t>
+  </si>
+  <si>
+    <t>Li</t>
+  </si>
+  <si>
+    <t>Be</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Ne</t>
+  </si>
+  <si>
+    <t>Na</t>
+  </si>
+  <si>
+    <t>Mg</t>
+  </si>
+  <si>
+    <t>Al</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Cl</t>
+  </si>
+  <si>
+    <t>Ar</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Ca</t>
+  </si>
+  <si>
+    <t>Sc</t>
+  </si>
+  <si>
+    <t>Ti</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Cr</t>
+  </si>
+  <si>
+    <t>Mn</t>
+  </si>
+  <si>
+    <t>Fe</t>
+  </si>
+  <si>
+    <t>Co</t>
+  </si>
+  <si>
+    <t>Ni</t>
+  </si>
+  <si>
+    <t>Cu</t>
+  </si>
+  <si>
+    <t>Zn</t>
+  </si>
+  <si>
+    <t>氫</t>
+  </si>
+  <si>
+    <t>氦</t>
+  </si>
+  <si>
+    <t>鋰</t>
+  </si>
+  <si>
+    <t>鈹</t>
+  </si>
+  <si>
+    <t>硼</t>
+  </si>
+  <si>
+    <t>碳</t>
+  </si>
+  <si>
+    <t>氮</t>
+  </si>
+  <si>
+    <t>氧</t>
+  </si>
+  <si>
+    <t>氟</t>
+  </si>
+  <si>
+    <t>氖</t>
+  </si>
+  <si>
+    <t>鈉</t>
+  </si>
+  <si>
+    <t>鎂</t>
+  </si>
+  <si>
+    <t>鋁</t>
+  </si>
+  <si>
+    <t>矽（硅）</t>
+  </si>
+  <si>
+    <t>磷</t>
+  </si>
+  <si>
+    <t>硫</t>
+  </si>
+  <si>
+    <t>氯</t>
+  </si>
+  <si>
+    <t>氬</t>
+  </si>
+  <si>
+    <t>鉀</t>
+  </si>
+  <si>
+    <t>鈣</t>
+  </si>
+  <si>
+    <t>鈧</t>
+  </si>
+  <si>
+    <t>鈦</t>
+  </si>
+  <si>
+    <t>釩</t>
+  </si>
+  <si>
+    <t>鉻</t>
+  </si>
+  <si>
+    <t>錳</t>
+  </si>
+  <si>
+    <t>鐵</t>
+  </si>
+  <si>
+    <t>鈷</t>
+  </si>
+  <si>
+    <t>鎳</t>
+  </si>
+  <si>
+    <t>銅</t>
+  </si>
+  <si>
+    <t>鋅</t>
+  </si>
+  <si>
+    <t>Hydrogen</t>
+  </si>
+  <si>
+    <t>Helium</t>
+  </si>
+  <si>
+    <t>Lithium</t>
+  </si>
+  <si>
+    <t>Beryllium</t>
+  </si>
+  <si>
+    <t>Boron</t>
+  </si>
+  <si>
+    <t>Carbon</t>
+  </si>
+  <si>
+    <t>Neon</t>
+  </si>
+  <si>
+    <t>Sodium</t>
+  </si>
+  <si>
+    <t>Magnesium</t>
+  </si>
+  <si>
+    <t>Aluminum</t>
+  </si>
+  <si>
+    <t>Silicon</t>
+  </si>
+  <si>
+    <t>Argon</t>
+  </si>
+  <si>
+    <t>Potassium</t>
+  </si>
+  <si>
+    <t>Calcium</t>
+  </si>
+  <si>
+    <t>Scandium</t>
+  </si>
+  <si>
+    <t>Titanium</t>
+  </si>
+  <si>
+    <t>Vanadium</t>
+  </si>
+  <si>
+    <t>Chromium</t>
+  </si>
+  <si>
+    <t>Manganese</t>
+  </si>
+  <si>
+    <t>Iron</t>
+  </si>
+  <si>
+    <t>Cobalt</t>
+  </si>
+  <si>
+    <t>Nickel</t>
+  </si>
+  <si>
+    <t>Copper</t>
+  </si>
+  <si>
+    <t>Zinc</t>
   </si>
 </sst>
 </file>
@@ -949,10 +1201,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55:C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1556,6 +1808,336 @@
         <v>161</v>
       </c>
     </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/element_app.xlsx
+++ b/element_app.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\PythonProject1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C81FF5-452E-480D-ADB1-BFAD5045A41E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32612C21-0BBD-4560-9154-E4FC8560C03E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1848" yWindow="1848" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="element_app" sheetId="1" r:id="rId1"/>
@@ -349,9 +349,6 @@
     <t>碳酸根離子</t>
   </si>
   <si>
-    <t>碳酸氫根（碳酸氫離子）</t>
-  </si>
-  <si>
     <t>氫氧根離子</t>
   </si>
   <si>
@@ -376,9 +373,6 @@
     <t>磷酸二氫根離子</t>
   </si>
   <si>
-    <t>銨離子</t>
-  </si>
-  <si>
     <t>次氯酸根離子</t>
   </si>
   <si>
@@ -790,6 +784,14 @@
   </si>
   <si>
     <t>Zinc</t>
+  </si>
+  <si>
+    <t>銨根離子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碳酸氫根（碳酸氫根離子）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1203,8 +1205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:C84"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1216,13 +1218,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1230,10 +1232,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1241,10 +1243,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1252,10 +1254,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1263,10 +1265,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1274,10 +1276,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1285,10 +1287,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1296,10 +1298,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1307,10 +1309,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1431,7 +1433,7 @@
         <v>86</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>109</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -1442,7 +1444,7 @@
         <v>87</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -1453,7 +1455,7 @@
         <v>88</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -1464,7 +1466,7 @@
         <v>89</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -1475,7 +1477,7 @@
         <v>90</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -1486,7 +1488,7 @@
         <v>91</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -1497,7 +1499,7 @@
         <v>92</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -1508,7 +1510,7 @@
         <v>93</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -1519,7 +1521,7 @@
         <v>94</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -1530,7 +1532,7 @@
         <v>95</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>118</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -1541,7 +1543,7 @@
         <v>96</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -1552,7 +1554,7 @@
         <v>97</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -1563,7 +1565,7 @@
         <v>98</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -1574,7 +1576,7 @@
         <v>99</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -1585,7 +1587,7 @@
         <v>100</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -1596,7 +1598,7 @@
         <v>101</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -1607,7 +1609,7 @@
         <v>102</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -1618,7 +1620,7 @@
         <v>103</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -1629,7 +1631,7 @@
         <v>104</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -1640,7 +1642,7 @@
         <v>105</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -1651,7 +1653,7 @@
         <v>106</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -1662,7 +1664,7 @@
         <v>33</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -1673,7 +1675,7 @@
         <v>34</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -1684,7 +1686,7 @@
         <v>35</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -1695,7 +1697,7 @@
         <v>36</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -1706,7 +1708,7 @@
         <v>37</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -1717,7 +1719,7 @@
         <v>38</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -1728,7 +1730,7 @@
         <v>39</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -1739,7 +1741,7 @@
         <v>40</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -1750,7 +1752,7 @@
         <v>41</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -1761,7 +1763,7 @@
         <v>42</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -1772,7 +1774,7 @@
         <v>43</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -1783,7 +1785,7 @@
         <v>44</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -1794,7 +1796,7 @@
         <v>45</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -1805,73 +1807,73 @@
         <v>46</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -1879,10 +1881,10 @@
         <v>7</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -1890,10 +1892,10 @@
         <v>5</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -1901,65 +1903,65 @@
         <v>1</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -1967,10 +1969,10 @@
         <v>8</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -1978,10 +1980,10 @@
         <v>6</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -1989,153 +1991,153 @@
         <v>2</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
